--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T11:38:34+00:00</t>
+    <t>2022-08-31T09:33:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T09:33:23+00:00</t>
+    <t>2022-08-31T09:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T09:56:11+00:00</t>
+    <t>2022-08-31T10:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T10:36:06+00:00</t>
+    <t>2022-08-31T12:42:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T12:42:43+00:00</t>
+    <t>2022-08-31T14:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T14:41:46+00:00</t>
+    <t>2022-08-31T20:08:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T20:08:39+00:00</t>
+    <t>2022-08-31T20:28:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T20:28:40+00:00</t>
+    <t>2022-08-31T20:44:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T20:44:20+00:00</t>
+    <t>2022-08-31T20:56:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T20:56:30+00:00</t>
+    <t>2022-09-03T19:58:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$39</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="344">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T20:14:05+00:00</t>
+    <t>2022-09-03T21:16:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -778,34 +778,48 @@
     <t>Condition.onset[x]</t>
   </si>
   <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Estimated or actual date,  date-time, or age</t>
+  </si>
+  <si>
+    <t>Estimated or actual date or date-time  the condition began, in the opinion of the clinician.</t>
+  </si>
+  <si>
+    <t>Age is generally used when the patient reports an age at which the Condition began to occur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>PRB-16</t>
+  </si>
+  <si>
+    <t>.effectiveTime.low or .inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="age at onset"].value</t>
+  </si>
+  <si>
+    <t>FiveWs.init</t>
+  </si>
+  <si>
+    <t>onsetDateTime</t>
+  </si>
+  <si>
+    <t>Condition.abatement[x]</t>
+  </si>
+  <si>
     <t>dateTime
 AgePeriodRangestring</t>
   </si>
   <si>
-    <t>Estimated or actual date,  date-time, or age</t>
-  </si>
-  <si>
-    <t>Estimated or actual date or date-time  the condition began, in the opinion of the clinician.</t>
-  </si>
-  <si>
-    <t>Age is generally used when the patient reports an age at which the Condition began to occur.</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>PRB-16</t>
-  </si>
-  <si>
-    <t>.effectiveTime.low or .inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="age at onset"].value</t>
-  </si>
-  <si>
-    <t>FiveWs.init</t>
-  </si>
-  <si>
-    <t>Condition.abatement[x]</t>
-  </si>
-  <si>
     <t>When in resolution/remission</t>
   </si>
   <si>
@@ -826,10 +840,6 @@
   </si>
   <si>
     <t>Condition.recordedDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
   </si>
   <si>
     <t>Date record was first recorded</t>
@@ -1406,7 +1416,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO38"/>
+  <dimension ref="A1:AO39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1416,7 +1426,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="35.88671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.0546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3761,16 +3771,14 @@
         <v>77</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>77</v>
+        <v>247</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>241</v>
@@ -3788,29 +3796,31 @@
         <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="C21" t="s" s="2">
         <v>77</v>
       </c>
@@ -3822,25 +3832,25 @@
         <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>242</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3890,7 +3900,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -3899,25 +3909,25 @@
         <v>88</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>254</v>
+        <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>77</v>
@@ -3925,7 +3935,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3945,18 +3955,20 @@
         <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>77</v>
@@ -4005,7 +4017,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -4014,7 +4026,7 @@
         <v>88</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>77</v>
+        <v>258</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>100</v>
@@ -4026,13 +4038,13 @@
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>77</v>
@@ -4040,7 +4052,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4063,13 +4075,13 @@
         <v>89</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4120,7 +4132,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4141,13 +4153,13 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>77</v>
@@ -4155,7 +4167,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4178,13 +4190,13 @@
         <v>89</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4235,7 +4247,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4256,13 +4268,13 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>273</v>
+        <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>77</v>
@@ -4270,7 +4282,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4281,7 +4293,7 @@
         <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>77</v>
@@ -4290,16 +4302,16 @@
         <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4350,34 +4362,34 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AF25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AM25" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>77</v>
+        <v>278</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>77</v>
@@ -4385,7 +4397,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4396,7 +4408,7 @@
         <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>77</v>
@@ -4408,13 +4420,13 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>90</v>
+        <v>280</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4465,19 +4477,19 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>77</v>
+        <v>283</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>77</v>
@@ -4489,7 +4501,7 @@
         <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -4500,18 +4512,18 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>77</v>
@@ -4523,17 +4535,15 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>135</v>
+        <v>286</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>77</v>
@@ -4582,31 +4592,31 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4621,7 +4631,7 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>291</v>
+        <v>133</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4634,26 +4644,24 @@
         <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>134</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>292</v>
+        <v>135</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="N28" t="s" s="2">
-        <v>143</v>
-      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4701,7 +4709,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -4725,7 +4733,7 @@
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>131</v>
+        <v>289</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -4736,39 +4744,43 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+      <c r="M29" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
       </c>
@@ -4792,13 +4804,13 @@
         <v>77</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>298</v>
+        <v>77</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>299</v>
+        <v>77</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>77</v>
@@ -4816,31 +4828,31 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>300</v>
+        <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>210</v>
+        <v>131</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -4851,7 +4863,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4862,7 +4874,7 @@
         <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>77</v>
@@ -4874,13 +4886,13 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>303</v>
+        <v>155</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4907,13 +4919,13 @@
         <v>77</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>77</v>
@@ -4931,16 +4943,16 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>100</v>
@@ -4949,13 +4961,13 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>77</v>
+        <v>304</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>306</v>
+        <v>210</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -4966,7 +4978,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4977,7 +4989,7 @@
         <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>77</v>
@@ -4989,13 +5001,13 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>155</v>
+        <v>306</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5022,13 +5034,13 @@
         <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>311</v>
+        <v>77</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>77</v>
@@ -5046,16 +5058,16 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>77</v>
+        <v>303</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>100</v>
@@ -5070,7 +5082,7 @@
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5081,7 +5093,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5092,7 +5104,7 @@
         <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>77</v>
@@ -5104,17 +5116,15 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>277</v>
+        <v>155</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5139,13 +5149,13 @@
         <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>77</v>
+        <v>313</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>77</v>
+        <v>314</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>77</v>
@@ -5163,19 +5173,19 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>317</v>
+        <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>77</v>
@@ -5187,7 +5197,7 @@
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5198,7 +5208,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5209,7 +5219,7 @@
         <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>77</v>
@@ -5221,15 +5231,17 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>90</v>
+        <v>280</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5278,19 +5290,19 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>77</v>
@@ -5302,7 +5314,7 @@
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5313,18 +5325,18 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>77</v>
@@ -5336,17 +5348,15 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>135</v>
+        <v>286</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>77</v>
@@ -5395,31 +5405,31 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5430,11 +5440,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>291</v>
+        <v>133</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5447,26 +5457,24 @@
         <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>134</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>292</v>
+        <v>135</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="N35" t="s" s="2">
-        <v>143</v>
-      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5514,7 +5522,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5538,7 +5546,7 @@
         <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>131</v>
+        <v>289</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5549,11 +5557,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5566,22 +5574,26 @@
         <v>77</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>77</v>
       </c>
@@ -5605,11 +5617,13 @@
         <v>77</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="X36" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y36" t="s" s="2">
-        <v>325</v>
+        <v>77</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>77</v>
@@ -5627,7 +5641,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -5636,25 +5650,25 @@
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>326</v>
+        <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>327</v>
+        <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>328</v>
+        <v>131</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>329</v>
+        <v>77</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>77</v>
@@ -5662,7 +5676,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5685,13 +5699,13 @@
         <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>331</v>
+        <v>155</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5718,13 +5732,11 @@
         <v>77</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>77</v>
@@ -5742,7 +5754,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -5751,25 +5763,25 @@
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>77</v>
+        <v>330</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>77</v>
@@ -5777,7 +5789,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5797,16 +5809,16 @@
         <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5857,7 +5869,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -5866,32 +5878,147 @@
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>77</v>
+        <v>329</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AO38" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J39" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AK38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL38" t="s" s="2">
+      <c r="K39" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AN38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO38" t="s" s="2">
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO39" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO38">
+  <autoFilter ref="A1:AO39">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5901,7 +6028,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI37">
+  <conditionalFormatting sqref="A2:AI38">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T21:16:47+00:00</t>
+    <t>2022-09-03T21:25:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T21:25:02+00:00</t>
+    <t>2022-09-04T09:55:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T09:55:59+00:00</t>
+    <t>2022-09-04T13:23:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T13:23:45+00:00</t>
+    <t>2022-09-04T13:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T13:33:44+00:00</t>
+    <t>2022-09-04T13:49:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T13:49:49+00:00</t>
+    <t>2022-09-04T14:40:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T14:40:23+00:00</t>
+    <t>2022-09-04T15:15:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T15:15:31+00:00</t>
+    <t>2022-09-04T15:19:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T15:19:44+00:00</t>
+    <t>2022-09-04T16:44:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T16:44:58+00:00</t>
+    <t>2022-09-04T16:52:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T16:52:24+00:00</t>
+    <t>2022-09-04T17:03:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T17:03:18+00:00</t>
+    <t>2022-09-04T18:26:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T18:26:39+00:00</t>
+    <t>2022-09-05T12:17:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T12:17:02+00:00</t>
+    <t>2022-09-05T12:37:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T12:37:44+00:00</t>
+    <t>2022-09-05T15:36:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T15:36:05+00:00</t>
+    <t>2022-09-05T19:43:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T19:43:49+00:00</t>
+    <t>2022-09-05T20:02:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T20:02:35+00:00</t>
+    <t>2022-09-05T20:38:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T20:38:58+00:00</t>
+    <t>2022-09-05T20:52:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T20:52:48+00:00</t>
+    <t>2022-09-06T09:51:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T09:51:55+00:00</t>
+    <t>2022-09-06T10:23:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T10:23:58+00:00</t>
+    <t>2022-09-06T10:35:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T10:35:52+00:00</t>
+    <t>2022-09-06T13:50:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T13:50:16+00:00</t>
+    <t>2022-09-06T13:52:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T13:52:47+00:00</t>
+    <t>2022-09-06T13:57:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T13:57:27+00:00</t>
+    <t>2022-09-06T15:51:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:51:32+00:00</t>
+    <t>2022-09-06T16:22:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T16:22:29+00:00</t>
+    <t>2022-09-07T08:47:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T08:47:40+00:00</t>
+    <t>2022-09-07T08:51:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T08:51:15+00:00</t>
+    <t>2022-09-07T09:51:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T09:51:43+00:00</t>
+    <t>2022-09-07T09:57:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T09:57:24+00:00</t>
+    <t>2022-09-07T13:35:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T13:35:46+00:00</t>
+    <t>2022-09-07T13:41:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="345">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T13:41:33+00:00</t>
+    <t>2022-09-08T14:48:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -289,7 +289,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -915,6 +915,10 @@
   </si>
   <si>
     <t>Condition.stage.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -4535,13 +4539,13 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>90</v>
+        <v>286</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4592,7 +4596,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -4616,7 +4620,7 @@
         <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4627,7 +4631,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4656,7 +4660,7 @@
         <v>135</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>137</v>
@@ -4709,7 +4713,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -4733,7 +4737,7 @@
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -4744,11 +4748,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4770,10 +4774,10 @@
         <v>134</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>137</v>
@@ -4828,7 +4832,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -4863,7 +4867,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4889,10 +4893,10 @@
         <v>155</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4922,10 +4926,10 @@
         <v>204</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>77</v>
@@ -4943,7 +4947,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -4952,7 +4956,7 @@
         <v>88</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>100</v>
@@ -4961,7 +4965,7 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>165</v>
@@ -4978,7 +4982,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5001,13 +5005,13 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5058,7 +5062,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5067,7 +5071,7 @@
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>100</v>
@@ -5082,7 +5086,7 @@
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5093,7 +5097,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5119,10 +5123,10 @@
         <v>155</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5152,10 +5156,10 @@
         <v>204</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>77</v>
@@ -5173,7 +5177,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5197,7 +5201,7 @@
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5208,7 +5212,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5234,13 +5238,13 @@
         <v>280</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5290,7 +5294,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5302,7 +5306,7 @@
         <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>77</v>
@@ -5314,7 +5318,7 @@
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5325,7 +5329,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5348,13 +5352,13 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>90</v>
+        <v>286</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5405,7 +5409,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5429,7 +5433,7 @@
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5440,7 +5444,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5469,7 +5473,7 @@
         <v>135</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>137</v>
@@ -5522,7 +5526,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5546,7 +5550,7 @@
         <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5557,11 +5561,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5583,10 +5587,10 @@
         <v>134</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>137</v>
@@ -5641,7 +5645,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -5676,7 +5680,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5702,10 +5706,10 @@
         <v>155</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5736,7 +5740,7 @@
       </c>
       <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>77</v>
@@ -5754,7 +5758,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -5763,13 +5767,13 @@
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>185</v>
@@ -5778,10 +5782,10 @@
         <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>77</v>
@@ -5789,7 +5793,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5812,13 +5816,13 @@
         <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5869,7 +5873,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -5878,7 +5882,7 @@
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>100</v>
@@ -5893,10 +5897,10 @@
         <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>77</v>
@@ -5904,7 +5908,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5927,13 +5931,13 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5984,7 +5988,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -5999,16 +6003,16 @@
         <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T14:48:32+00:00</t>
+    <t>2022-09-09T09:52:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T09:52:31+00:00</t>
+    <t>2022-09-09T10:12:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T10:12:33+00:00</t>
+    <t>2022-09-09T14:24:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T14:24:01+00:00</t>
+    <t>2022-09-09T14:31:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T14:31:53+00:00</t>
+    <t>2022-09-09T14:58:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T14:58:40+00:00</t>
+    <t>2022-09-09T15:15:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T15:15:08+00:00</t>
+    <t>2022-09-12T10:00:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T10:00:30+00:00</t>
+    <t>2022-09-12T10:06:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T10:06:31+00:00</t>
+    <t>2022-09-14T11:15:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T11:15:14+00:00</t>
+    <t>2022-09-15T13:02:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T13:02:50+00:00</t>
+    <t>2022-09-15T14:13:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T14:13:29+00:00</t>
+    <t>2022-09-15T14:36:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T14:36:49+00:00</t>
+    <t>2022-09-15T17:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.com/fhir/example/StructureDefinition/covid19-presentation</t>
+    <t>http://openhie.org/fhir/covid-casereporting/StructureDefinition/covid19-presentation</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T17:44:16+00:00</t>
+    <t>2022-09-15T19:01:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1052,7 +1052,7 @@
     <t>A manifestation or symptom that led to the recording of this condition.</t>
   </si>
   <si>
-    <t>http://example.com/fhir/example/ValueSet/vs-presentation</t>
+    <t>http://openhie.org/fhir/covid-casereporting/ValueSet/vs-presentation</t>
   </si>
   <si>
     <t xml:space="preserve">con-2
@@ -1453,7 +1453,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="85.23828125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.08203125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="63.96875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T19:01:40+00:00</t>
+    <t>2022-09-15T19:52:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid-casereporting/StructureDefinition/covid19-presentation</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-presentation</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T19:52:53+00:00</t>
+    <t>2022-09-16T09:13:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1052,7 +1052,7 @@
     <t>A manifestation or symptom that led to the recording of this condition.</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid-casereporting/ValueSet/vs-presentation</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-presentation</t>
   </si>
   <si>
     <t xml:space="preserve">con-2
@@ -1453,7 +1453,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="85.23828125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.96875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="66.3046875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T09:13:54+00:00</t>
+    <t>2022-09-16T13:03:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T13:03:17+00:00</t>
+    <t>2022-09-16T14:25:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T14:25:25+00:00</t>
+    <t>2022-09-16T14:32:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T14:32:23+00:00</t>
+    <t>2022-09-16T18:48:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T18:48:28+00:00</t>
+    <t>2022-09-16T18:53:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T18:53:42+00:00</t>
+    <t>2022-09-16T19:39:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T19:39:25+00:00</t>
+    <t>2022-09-16T19:44:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T19:44:32+00:00</t>
+    <t>2022-09-16T20:02:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T20:02:42+00:00</t>
+    <t>2022-09-16T20:08:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T20:08:29+00:00</t>
+    <t>2022-09-19T15:12:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T15:12:26+00:00</t>
+    <t>2022-09-19T15:24:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T15:24:10+00:00</t>
+    <t>2022-09-21T08:04:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -778,46 +778,46 @@
     <t>Condition.onset[x]</t>
   </si>
   <si>
+    <t>dateTime
+AgePeriodRangestring</t>
+  </si>
+  <si>
+    <t>Estimated or actual date,  date-time, or age</t>
+  </si>
+  <si>
+    <t>Estimated or actual date or date-time  the condition began, in the opinion of the clinician.</t>
+  </si>
+  <si>
+    <t>Age is generally used when the patient reports an age at which the Condition began to occur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>PRB-16</t>
+  </si>
+  <si>
+    <t>.effectiveTime.low or .inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="age at onset"].value</t>
+  </si>
+  <si>
+    <t>FiveWs.init</t>
+  </si>
+  <si>
+    <t>onsetDateTime</t>
+  </si>
+  <si>
     <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
-    <t>Estimated or actual date,  date-time, or age</t>
-  </si>
-  <si>
-    <t>Estimated or actual date or date-time  the condition began, in the opinion of the clinician.</t>
-  </si>
-  <si>
-    <t>Age is generally used when the patient reports an age at which the Condition began to occur.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>PRB-16</t>
-  </si>
-  <si>
-    <t>.effectiveTime.low or .inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="age at onset"].value</t>
-  </si>
-  <si>
-    <t>FiveWs.init</t>
-  </si>
-  <si>
-    <t>onsetDateTime</t>
-  </si>
-  <si>
     <t>Condition.abatement[x]</t>
-  </si>
-  <si>
-    <t>dateTime
-AgePeriodRangestring</t>
   </si>
   <si>
     <t>When in resolution/remission</t>
@@ -3845,7 +3845,7 @@
         <v>89</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>243</v>
@@ -3939,7 +3939,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3962,7 +3962,7 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>255</v>
@@ -4021,7 +4021,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -4079,7 +4079,7 @@
         <v>89</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>262</v>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-21T08:04:14+00:00</t>
+    <t>2022-09-21T08:12:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-21T08:12:07+00:00</t>
+    <t>2022-09-21T10:16:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-21T10:16:39+00:00</t>
+    <t>2022-09-21T10:21:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-21T10:21:48+00:00</t>
+    <t>2022-09-22T07:37:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T07:37:09+00:00</t>
+    <t>2022-09-22T08:02:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T08:02:11+00:00</t>
+    <t>2022-09-22T08:03:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T08:03:20+00:00</t>
+    <t>2022-10-06T09:32:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T09:32:01+00:00</t>
+    <t>2022-10-06T11:22:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="344">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T11:22:19+00:00</t>
+    <t>2022-11-03T06:13:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -262,10 +262,6 @@
   </si>
   <si>
     <t>A clinical condition, problem, diagnosis, or other event, situation, issue, or clinical concept that has risen to a level of concern.</t>
-  </si>
-  <si>
-    <t>con-3:Condition.clinicalStatus SHALL be present if verificationStatus is not entered-in-error and category is problem-list-item {clinicalStatus.exists() or verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code = 'entered-in-error').exists() or category.select($this='problem-list-item').empty()}
-con-4:If condition is abated, then clinicalStatus must be either inactive, resolved, or remission {abatement.empty() or clinicalStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-clinical' and (code='resolved' or code='remission' or code='inactive')).exists()}con-5:Condition.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code='entered-in-error').empty() or clinicalStatus.empty()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1691,19 +1687,19 @@
         <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>77</v>
@@ -1714,7 +1710,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1725,28 +1721,28 @@
         <v>78</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1796,13 +1792,13 @@
         <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>77</v>
@@ -1831,7 +1827,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1842,25 +1838,25 @@
         <v>78</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1911,19 +1907,19 @@
         <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>77</v>
@@ -1946,7 +1942,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1957,28 +1953,28 @@
         <v>78</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2028,19 +2024,19 @@
         <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>77</v>
@@ -2063,7 +2059,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2074,7 +2070,7 @@
         <v>78</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>77</v>
@@ -2086,16 +2082,16 @@
         <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2121,43 +2117,43 @@
         <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>77</v>
@@ -2180,18 +2176,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>77</v>
@@ -2203,16 +2199,16 @@
         <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2262,31 +2258,31 @@
         <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>77</v>
@@ -2297,11 +2293,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2320,16 +2316,16 @@
         <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2379,7 +2375,7 @@
         <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>78</v>
@@ -2403,7 +2399,7 @@
         <v>77</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>77</v>
@@ -2414,11 +2410,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2437,16 +2433,16 @@
         <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2496,7 +2492,7 @@
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>78</v>
@@ -2508,7 +2504,7 @@
         <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>77</v>
@@ -2520,7 +2516,7 @@
         <v>77</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>77</v>
@@ -2531,11 +2527,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2548,25 +2544,25 @@
         <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>77</v>
@@ -2615,7 +2611,7 @@
         <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>78</v>
@@ -2627,7 +2623,7 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>77</v>
@@ -2639,7 +2635,7 @@
         <v>77</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>77</v>
@@ -2650,7 +2646,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2670,22 +2666,22 @@
         <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>77</v>
@@ -2734,7 +2730,7 @@
         <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>78</v>
@@ -2746,22 +2742,22 @@
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="AK11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>77</v>
@@ -2769,7 +2765,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2780,28 +2776,28 @@
         <v>78</v>
       </c>
       <c r="F12" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H12" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="I12" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2827,58 +2823,58 @@
         <v>77</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH12" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="Z12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH12" t="s" s="2">
+      <c r="AI12" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AI12" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
+      <c r="AK12" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>77</v>
@@ -2886,7 +2882,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2897,28 +2893,28 @@
         <v>78</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="I13" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2944,66 +2940,66 @@
         <v>77</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH13" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="Z13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH13" t="s" s="2">
+      <c r="AI13" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AI13" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AO13" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>178</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3026,16 +3022,16 @@
         <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3061,14 +3057,14 @@
         <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="X14" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="Z14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3085,7 +3081,7 @@
         <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>78</v>
@@ -3097,22 +3093,22 @@
         <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>77</v>
@@ -3120,7 +3116,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3131,7 +3127,7 @@
         <v>78</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>77</v>
@@ -3143,16 +3139,16 @@
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3178,99 +3174,99 @@
         <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Y15" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>198</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F16" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>77</v>
@@ -3295,66 +3291,66 @@
         <v>77</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
+      <c r="AK16" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>212</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3374,19 +3370,19 @@
         <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3412,14 +3408,14 @@
         <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>218</v>
-      </c>
       <c r="Z17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3436,7 +3432,7 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
@@ -3448,63 +3444,63 @@
         <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AL17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO17" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>221</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F18" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J18" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>77</v>
@@ -3553,34 +3549,34 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AK18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>77</v>
@@ -3588,7 +3584,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3596,31 +3592,31 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G19" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="H19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J19" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3670,34 +3666,34 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AK19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>77</v>
@@ -3705,7 +3701,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3716,28 +3712,28 @@
         <v>78</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J20" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3775,44 +3771,44 @@
         <v>77</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD20" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AE20" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
+      <c r="AK20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AK20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>77</v>
@@ -3820,10 +3816,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>77</v>
@@ -3833,28 +3829,28 @@
         <v>78</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G21" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3904,34 +3900,34 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AK21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>77</v>
@@ -3939,7 +3935,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3950,7 +3946,7 @@
         <v>78</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>77</v>
@@ -3962,16 +3958,16 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4021,34 +4017,34 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH22" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AI22" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>77</v>
@@ -4056,7 +4052,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4067,25 +4063,25 @@
         <v>78</v>
       </c>
       <c r="F23" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J23" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4136,19 +4132,19 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>77</v>
@@ -4157,13 +4153,13 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>77</v>
@@ -4171,7 +4167,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4182,25 +4178,25 @@
         <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J24" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4251,19 +4247,19 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>77</v>
@@ -4275,10 +4271,10 @@
         <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>77</v>
@@ -4286,7 +4282,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4297,25 +4293,25 @@
         <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4366,19 +4362,19 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>77</v>
@@ -4387,13 +4383,13 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>77</v>
@@ -4401,7 +4397,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4424,13 +4420,13 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4481,7 +4477,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4493,19 +4489,19 @@
         <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -4516,7 +4512,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4527,7 +4523,7 @@
         <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>77</v>
@@ -4539,13 +4535,13 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4596,31 +4592,31 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4631,11 +4627,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4654,16 +4650,16 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K28" t="s" s="2">
-        <v>135</v>
-      </c>
       <c r="L28" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4713,7 +4709,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -4725,7 +4721,7 @@
         <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>77</v>
@@ -4737,7 +4733,7 @@
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -4748,11 +4744,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4765,25 +4761,25 @@
         <v>77</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>297</v>
-      </c>
       <c r="M29" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -4832,7 +4828,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -4844,7 +4840,7 @@
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>77</v>
@@ -4856,7 +4852,7 @@
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -4867,7 +4863,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4878,7 +4874,7 @@
         <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>77</v>
@@ -4890,13 +4886,13 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4923,55 +4919,55 @@
         <v>77</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="Y30" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="Y30" t="s" s="2">
+      <c r="Z30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH30" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="Z30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH30" t="s" s="2">
+      <c r="AI30" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AI30" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>305</v>
-      </c>
       <c r="AL30" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -4982,7 +4978,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5005,13 +5001,13 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5062,7 +5058,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5071,10 +5067,10 @@
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>77</v>
@@ -5086,7 +5082,7 @@
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5097,7 +5093,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5108,7 +5104,7 @@
         <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>77</v>
@@ -5120,13 +5116,13 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5153,55 +5149,55 @@
         <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="Y32" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="Y32" t="s" s="2">
+      <c r="Z32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5212,7 +5208,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5235,16 +5231,16 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5294,7 +5290,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5306,19 +5302,19 @@
         <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5329,7 +5325,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5340,7 +5336,7 @@
         <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>77</v>
@@ -5352,13 +5348,13 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5409,31 +5405,31 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5444,11 +5440,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5467,16 +5463,16 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K35" t="s" s="2">
-        <v>135</v>
-      </c>
       <c r="L35" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5526,7 +5522,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5538,7 +5534,7 @@
         <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>77</v>
@@ -5550,7 +5546,7 @@
         <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5561,11 +5557,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5578,25 +5574,25 @@
         <v>77</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>297</v>
-      </c>
       <c r="M36" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>77</v>
@@ -5645,7 +5641,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -5657,7 +5653,7 @@
         <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>77</v>
@@ -5669,7 +5665,7 @@
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5680,7 +5676,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5700,16 +5696,16 @@
         <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5736,11 +5732,11 @@
         <v>77</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>77</v>
@@ -5758,7 +5754,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -5767,25 +5763,25 @@
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AI37" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
+      <c r="AK37" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AK37" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>77</v>
@@ -5793,7 +5789,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5813,16 +5809,16 @@
         <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5873,7 +5869,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -5882,10 +5878,10 @@
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>77</v>
@@ -5897,10 +5893,10 @@
         <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>77</v>
@@ -5908,7 +5904,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5931,13 +5927,13 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5988,7 +5984,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6000,19 +5996,19 @@
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AK39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-03T06:13:39+00:00</t>
+    <t>2022-11-03T06:19:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-03T06:19:36+00:00</t>
+    <t>2022-11-03T06:53:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-03T06:53:20+00:00</t>
+    <t>2022-11-03T06:58:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-03T06:58:58+00:00</t>
+    <t>2022-11-03T08:57:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-presentation.xlsx
+++ b/StructureDefinition-covid19-presentation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-03T08:57:21+00:00</t>
+    <t>2022-11-03T14:17:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
